--- a/src/P07_af_all/T01_af_features/S04_af_feature_selection.xlsx
+++ b/src/P07_af_all/T01_af_features/S04_af_feature_selection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>stress_type</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>feature_rename</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -502,6 +507,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Fx__dwell__fft_coefficient__attr_"abs"__coeff_11</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fx__dwell__ar_coefficient__coeff_0__k_10</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -568,6 +583,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fx__dwell__variation_coefficient</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -601,6 +621,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fx__dwell__fft_coefficient__attr_"abs"__coeff_51</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +659,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fx__dwell__fft_coefficient__attr_"angle"__coeff_75</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -667,6 +697,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fx__dwell__quantile__q_0.7</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -700,6 +735,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fx__dwell__fft_coefficient__attr_"real"__coeff_62</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -733,6 +773,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fx__dwell__fft_coefficient__attr_"real"__coeff_42</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -766,6 +811,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fx__dwell__quantile__q_0.8</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -799,6 +849,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fx__dwell__fft_coefficient__attr_"angle"__coeff_62</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -832,6 +887,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fx__dwell__partial_autocorrelation__lag_6</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -865,6 +925,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fx__dwell__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -898,6 +963,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Fx__dwell__change_quantiles__f_agg_"var"__isabs_False__qh_0.8__ql_0.2</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -931,6 +1001,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Fx__dwell__fft_coefficient__attr_"real"__coeff_31</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -964,6 +1039,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Fx__dwell__fft_coefficient__attr_"angle"__coeff_37</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -997,6 +1077,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Fy__dwell__fft_coefficient__attr_"real"__coeff_71</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1030,6 +1115,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Fy__dwell__fft_coefficient__attr_"abs"__coeff_59</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1063,6 +1153,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Fy__dwell__fft_coefficient__attr_"abs"__coeff_46</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1096,6 +1191,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Fy__dwell__fft_coefficient__attr_"abs"__coeff_57</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1129,6 +1229,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Fy__dwell__c3__lag_1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1162,6 +1267,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Fy__dwell__last_location_of_minimum</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1195,6 +1305,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Fy__dwell__first_location_of_minimum</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1228,6 +1343,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Fy__dwell__fft_coefficient__attr_"real"__coeff_16</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1261,6 +1381,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Fy__dwell__fft_coefficient__attr_"angle"__coeff_16</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1294,6 +1419,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Fy__dwell__fft_coefficient__attr_"imag"__coeff_42</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1327,6 +1457,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Fy__dwell__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.2</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1360,6 +1495,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Fy__dwell__autocorrelation__lag_3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1393,6 +1533,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Fy__dwell__fft_coefficient__attr_"imag"__coeff_95</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1426,6 +1571,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Fy__dwell__change_quantiles__f_agg_"var"__isabs_True__qh_0.8__ql_0.4</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1459,6 +1609,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Fy__dwell__change_quantiles__f_agg_"var"__isabs_False__qh_0.8__ql_0.2</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1492,6 +1647,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Fz__dwell__fft_coefficient__attr_"angle"__coeff_4</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1525,6 +1685,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Fz__dwell__fft_coefficient__attr_"real"__coeff_4</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1558,6 +1723,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Fz__dwell__fft_coefficient__attr_"angle"__coeff_88</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1591,6 +1761,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Fz__dwell__fft_coefficient__attr_"angle"__coeff_10</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1624,6 +1799,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Fz__dwell__agg_linear_trend__attr_"rvalue"__chunk_len_50__f_agg_"max"</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1657,6 +1837,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Fz__dwell__fft_coefficient__attr_"angle"__coeff_68</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1690,6 +1875,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Fz__dwell__change_quantiles__f_agg_"mean"__isabs_True__qh_0.4__ql_0.0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1723,6 +1913,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Fz__dwell__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1756,6 +1951,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Fz__dwell__fft_coefficient__attr_"angle"__coeff_44</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1789,6 +1989,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Fz__dwell__change_quantiles__f_agg_"mean"__isabs_True__qh_0.6__ql_0.0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1822,6 +2027,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Fz__dwell__approximate_entropy__m_2__r_0.7</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1855,6 +2065,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Fz__dwell__approximate_entropy__m_2__r_0.9</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1888,6 +2103,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Fz__dwell__autocorrelation__lag_6</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1921,6 +2141,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Fz__dwell__partial_autocorrelation__lag_2</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1954,6 +2179,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Fz__dwell__autocorrelation__lag_2</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1987,6 +2217,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Mz__dwell__augmented_dickey_fuller__attr_"teststat"__autolag_"AIC"</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2020,6 +2255,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mz__dwell__augmented_dickey_fuller__attr_"pvalue"__autolag_"AIC"</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2053,6 +2293,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Mz__dwell__agg_linear_trend__attr_"intercept"__chunk_len_5__f_agg_"max"</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2086,6 +2331,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Mz__dwell__agg_linear_trend__attr_"intercept"__chunk_len_10__f_agg_"max"</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2119,6 +2369,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Mz__dwell__fft_coefficient__attr_"angle"__coeff_75</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2152,6 +2407,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Mz__dwell__fft_coefficient__attr_"real"__coeff_62</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2185,6 +2445,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Mz__dwell__fft_coefficient__attr_"real"__coeff_42</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2218,6 +2483,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Mz__dwell__fft_coefficient__attr_"angle"__coeff_13</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2251,6 +2521,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Mz__dwell__ar_coefficient__coeff_6__k_10</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2284,6 +2559,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Mz__dwell__mean_change</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2317,6 +2597,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Mz__dwell__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.2</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2350,6 +2635,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Mz__dwell__change_quantiles__f_agg_"var"__isabs_False__qh_0.8__ql_0.2</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2383,6 +2673,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Mz__dwell__fft_coefficient__attr_"real"__coeff_31</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2416,6 +2711,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Mz__dwell__ar_coefficient__coeff_5__k_10</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2449,6 +2749,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Mz__dwell__fft_coefficient__attr_"imag"__coeff_77</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2482,6 +2787,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Fx__weld__change_quantiles__f_agg_"var"__isabs_True__qh_0.6__ql_0.2</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2515,6 +2825,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Fx__weld__fft_coefficient__attr_"abs"__coeff_5</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2548,6 +2863,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Fx__weld__change_quantiles__f_agg_"var"__isabs_False__qh_0.8__ql_0.4</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2581,6 +2901,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Fx__weld__change_quantiles__f_agg_"var"__isabs_False__qh_0.6__ql_0.2</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2614,6 +2939,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Fx__weld__change_quantiles__f_agg_"mean"__isabs_True__qh_0.8__ql_0.4</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2647,6 +2977,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Fx__weld__fft_coefficient__attr_"real"__coeff_31</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2680,6 +3015,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Fx__weld__fft_coefficient__attr_"angle"__coeff_31</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2713,6 +3053,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Fx__weld__fft_coefficient__attr_"real"__coeff_62</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2746,6 +3091,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Fx__weld__maximum</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2779,6 +3129,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Fx__weld__absolute_sum_of_changes</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2812,6 +3167,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Fx__weld__fft_coefficient__attr_"abs"__coeff_58</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2845,6 +3205,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Fx__weld__fft_coefficient__attr_"imag"__coeff_21</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2878,6 +3243,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Fx__weld__fft_coefficient__attr_"real"__coeff_72</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2911,6 +3281,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Fx__weld__fft_coefficient__attr_"abs"__coeff_43</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2944,6 +3319,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Fx__weld__autocorrelation__lag_3</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2977,6 +3357,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Fy__weld__energy_ratio_by_chunks__num_segments_10__segment_focus_5</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3010,6 +3395,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Fy__weld__change_quantiles__f_agg_"mean"__isabs_True__qh_0.4__ql_0.0</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3043,6 +3433,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Fy__weld__change_quantiles__f_agg_"mean"__isabs_False__qh_1.0__ql_0.6</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3076,6 +3471,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Fy__weld__ar_coefficient__coeff_0__k_10</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3109,6 +3509,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Fy__weld__fft_coefficient__attr_"angle"__coeff_27</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3142,6 +3547,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Fy__weld__fft_coefficient__attr_"imag"__coeff_61</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3175,6 +3585,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Fy__weld__fft_coefficient__attr_"abs"__coeff_61</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3208,6 +3623,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Fy__weld__cwt_coefficients__coeff_2__w_2__widths_(2, 5, 10, 20)</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3241,6 +3661,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Fy__weld__fft_coefficient__attr_"angle"__coeff_93</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3274,6 +3699,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Fy__weld__count_above_mean</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3307,6 +3737,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Fy__weld__fft_coefficient__attr_"real"__coeff_51</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3340,6 +3775,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Fy__weld__ar_coefficient__coeff_5__k_10</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3373,6 +3813,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Fy__weld__cid_ce__normalize_True</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3406,6 +3851,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Fy__weld__number_cwt_peaks__n_1</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3439,6 +3889,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Fy__weld__ar_coefficient__coeff_6__k_10</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3472,6 +3927,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Fz__weld__change_quantiles__f_agg_"mean"__isabs_False__qh_1.0__ql_0.4</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3505,6 +3965,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Fz__weld__agg_linear_trend__attr_"rvalue"__chunk_len_5__f_agg_"var"</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3538,6 +4003,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Fz__weld__change_quantiles__f_agg_"mean"__isabs_False__qh_0.6__ql_0.4</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3571,6 +4041,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Fz__weld__change_quantiles__f_agg_"mean"__isabs_False__qh_0.4__ql_0.2</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3604,6 +4079,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Fz__weld__change_quantiles__f_agg_"mean"__isabs_False__qh_0.6__ql_0.0</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3637,6 +4117,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Fz__weld__fft_coefficient__attr_"real"__coeff_84</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3670,6 +4155,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Fz__weld__fft_coefficient__attr_"real"__coeff_85</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3703,6 +4193,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Fz__weld__fft_coefficient__attr_"real"__coeff_94</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3736,6 +4231,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Fz__weld__agg_linear_trend__attr_"stderr"__chunk_len_50__f_agg_"var"</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3769,6 +4269,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Fz__weld__count_below_mean</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3802,6 +4307,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Fz__weld__ratio_beyond_r_sigma__r_1</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3835,6 +4345,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Fz__weld__ratio_beyond_r_sigma__r_2</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3868,6 +4383,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Fz__weld__ratio_beyond_r_sigma__r_2.5</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3901,6 +4421,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Fz__weld__agg_linear_trend__attr_"rvalue"__chunk_len_50__f_agg_"min"</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3934,6 +4459,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Fz__weld__binned_entropy__max_bins_10</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3967,6 +4497,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Mz__weld__quantile__q_0.1</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4000,6 +4535,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Mz__weld__energy_ratio_by_chunks__num_segments_10__segment_focus_4</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4033,6 +4573,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Mz__weld__change_quantiles__f_agg_"mean"__isabs_False__qh_0.8__ql_0.2</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4066,6 +4611,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Mz__weld__variation_coefficient</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4099,6 +4649,11 @@
           <t>stress_value_5052</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Mz__weld__energy_ratio_by_chunks__num_segments_10__segment_focus_5</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4132,6 +4687,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Mz__weld__fft_coefficient__attr_"angle"__coeff_15</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4165,6 +4725,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Mz__weld__last_location_of_maximum</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4198,6 +4763,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Mz__weld__first_location_of_maximum</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4231,6 +4801,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Mz__weld__fft_coefficient__attr_"angle"__coeff_16</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4264,6 +4839,11 @@
           <t>stress_value_6061</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Mz__weld__fft_coefficient__attr_"real"__coeff_15</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4297,6 +4877,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Mz__weld__fft_coefficient__attr_"abs"__coeff_58</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4330,6 +4915,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Mz__weld__fft_coefficient__attr_"abs"__coeff_83</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4363,6 +4953,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Mz__weld__fft_coefficient__attr_"abs"__coeff_96</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4396,6 +4991,11 @@
           <t>stress_value_center</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Mz__weld__fft_coefficient__attr_"angle"__coeff_37</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4427,6 +5027,11 @@
       <c r="G121" t="inlineStr">
         <is>
           <t>stress_value_center</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Mz__weld__fft_coefficient__attr_"imag"__coeff_2</t>
         </is>
       </c>
     </row>
